--- a/static/files/Formato_Registro_Estudiantes.xlsx
+++ b/static/files/Formato_Registro_Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\prueva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CFB49-1150-40B2-9B5A-B017598991CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4E7A3-1337-40FB-8BA4-69AD35E3B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
